--- a/docs/excel_import/sample.xlsx
+++ b/docs/excel_import/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thokrl/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{668C7CFE-729B-4442-91B9-58C458FBA7F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4FBE1-07AB-0E43-B943-B47FE9A094FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67840" yWindow="2300" windowWidth="37380" windowHeight="17180" xr2:uid="{65063F85-4105-8F42-BAD0-641D55AA808E}"/>
+    <workbookView xWindow="67700" yWindow="4840" windowWidth="37380" windowHeight="17180" xr2:uid="{65063F85-4105-8F42-BAD0-641D55AA808E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>qid</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>https://images-na.ssl-images-amazon.com/images/I/61bze1WJhfL._AC_SL1024_.jpg</t>
+  </si>
+  <si>
+    <t>cardtitle</t>
+  </si>
+  <si>
+    <t>NoQuestionWarning</t>
+  </si>
+  <si>
+    <t>NoAnswerWarning</t>
   </si>
 </sst>
 </file>
@@ -483,24 +492,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654EBFE9-4F2B-8349-985B-01DDB193FC33}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="29.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="30" style="3" customWidth="1"/>
     <col min="6" max="6" width="37" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,22 +533,24 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -550,8 +563,9 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="175" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -573,25 +587,103 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="175" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="175" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{C17CA9FC-9AEE-A148-B0D9-3FA5CFA27469}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{C17CA9FC-9AEE-A148-B0D9-3FA5CFA27469}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{E35B1DD5-E194-D643-8879-83EB60A9A686}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{37D6FE7E-D8C0-8743-AF73-A5D36AE489F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/excel_import/sample.xlsx
+++ b/docs/excel_import/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thokrl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thokrl/Documents/aws-ai-qna-bot/docs/excel_import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB4FBE1-07AB-0E43-B943-B47FE9A094FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53B024C-788E-3949-A8DD-0E686D21FE3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67700" yWindow="4840" windowWidth="37380" windowHeight="17180" xr2:uid="{65063F85-4105-8F42-BAD0-641D55AA808E}"/>
+    <workbookView xWindow="67700" yWindow="4420" windowWidth="37380" windowHeight="17180" xr2:uid="{65063F85-4105-8F42-BAD0-641D55AA808E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>qid</t>
   </si>
@@ -492,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654EBFE9-4F2B-8349-985B-01DDB193FC33}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,11 +679,50 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:26" ht="175" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{C17CA9FC-9AEE-A148-B0D9-3FA5CFA27469}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{E35B1DD5-E194-D643-8879-83EB60A9A686}"/>
     <hyperlink ref="I4" r:id="rId3" xr:uid="{37D6FE7E-D8C0-8743-AF73-A5D36AE489F3}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{2BE65CD2-3570-E64D-A236-0E7589AD4093}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/excel_import/sample.xlsx
+++ b/docs/excel_import/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thokrl/Documents/aws-ai-qna-bot/docs/excel_import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thokrl/Documents/GitHub/aws-ai-qna-bot/docs/excel_import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53B024C-788E-3949-A8DD-0E686D21FE3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFE62DE-5446-2149-BC83-AEE0A2F3DA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67700" yWindow="4420" windowWidth="37380" windowHeight="17180" xr2:uid="{65063F85-4105-8F42-BAD0-641D55AA808E}"/>
+    <workbookView xWindow="69480" yWindow="5000" windowWidth="37860" windowHeight="20260" xr2:uid="{65063F85-4105-8F42-BAD0-641D55AA808E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>qid</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>NoAnswerWarning</t>
+  </si>
+  <si>
+    <t>QnAYesNoBot</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>clientFilterValues</t>
+  </si>
+  <si>
+    <t>elicitResponse.responsebot_hook</t>
   </si>
 </sst>
 </file>
@@ -494,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654EBFE9-4F2B-8349-985B-01DDB193FC33}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,7 +523,7 @@
     <col min="13" max="13" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +563,12 @@
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -605,6 +621,12 @@
       <c r="M2" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/docs/excel_import/sample.xlsx
+++ b/docs/excel_import/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thokrl/Documents/GitHub/aws-ai-qna-bot/docs/excel_import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thokrl/Github/aws-qnabot/docs/excel_import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFE62DE-5446-2149-BC83-AEE0A2F3DA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E53A71-A902-4D41-872E-76AF65039E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69480" yWindow="5000" windowWidth="37860" windowHeight="20260" xr2:uid="{65063F85-4105-8F42-BAD0-641D55AA808E}"/>
+    <workbookView xWindow="67740" yWindow="460" windowWidth="37860" windowHeight="20260" xr2:uid="{65063F85-4105-8F42-BAD0-641D55AA808E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>qid</t>
   </si>
@@ -60,9 +60,6 @@
     <t>buttonvalue2</t>
   </si>
   <si>
-    <t>QnABot.001</t>
-  </si>
-  <si>
     <t>What is Q and A Bot</t>
   </si>
   <si>
@@ -118,6 +115,42 @@
   </si>
   <si>
     <t>elicitResponse.responsebot_hook</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>TestValue</t>
+  </si>
+  <si>
+    <t>attributename1</t>
+  </si>
+  <si>
+    <t>attributevalue1</t>
+  </si>
+  <si>
+    <t>attributename2</t>
+  </si>
+  <si>
+    <t>attributevalue2</t>
+  </si>
+  <si>
+    <t>TestName2</t>
+  </si>
+  <si>
+    <t>TestValue2</t>
+  </si>
+  <si>
+    <t>QnABot.005</t>
+  </si>
+  <si>
+    <t>enabletranslation1</t>
+  </si>
+  <si>
+    <t>enabletranslation2</t>
+  </si>
+  <si>
+    <t>badvalue</t>
   </si>
 </sst>
 </file>
@@ -504,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654EBFE9-4F2B-8349-985B-01DDB193FC33}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,9 +554,12 @@
     <col min="8" max="8" width="37" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -564,179 +600,210 @@
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="175" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="175" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="175" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="175" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="175" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="175" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="175" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
